--- a/bh3/545409886806787391_2021-07-09_18-28-55.xlsx
+++ b/bh3/545409886806787391_2021-07-09_18-28-55.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -567,10 +583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:33:43</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44389.60674768518</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -646,10 +660,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:26:21</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44389.01829861111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -717,10 +729,8 @@
           <t>4884097192</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:33:19</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44388.06480324074</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -796,10 +806,8 @@
           <t>4882900459</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:21:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44387.93136574074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -867,10 +875,8 @@
           <t>4877241096</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:18:51</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44387.63809027777</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -946,10 +952,8 @@
           <t>4880130912</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:18:44</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44387.63800925926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1048,10 +1052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:59:53</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44387.62491898148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1123,10 +1125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:54</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44387.56381944445</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1202,10 +1202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:36</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44387.52333333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1281,10 +1279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:16</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44387.49462962963</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1356,10 +1352,8 @@
           <t>4876844844</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:21</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44387.48774305556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1423,10 +1417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:08:56</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44387.46453703703</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1502,10 +1494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:46</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44387.4581712963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1569,10 +1559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:31:34</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44387.43858796296</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1640,10 +1628,8 @@
           <t>4876844844</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:27:47</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44387.43596064814</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1715,10 +1701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:05:14</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.42030092593</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1782,10 +1766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:52:26</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.41141203704</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1849,10 +1831,8 @@
           <t>4876844844</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:52:00</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.41111111111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1916,10 +1896,8 @@
           <t>4876844844</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:44:19</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.40577546296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1991,10 +1969,8 @@
           <t>4876844844</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:44:10</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.4056712963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2066,10 +2042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:25:18</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.35090277778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2133,10 +2107,8 @@
           <t>4874359184</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 07:17:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.30373842592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2212,10 +2184,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 03:52:03</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.16114583334</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2283,10 +2253,8 @@
           <t>4877348196</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:55:23</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.12179398148</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -2354,10 +2322,8 @@
           <t>4877333782</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:48:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.11682870371</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2425,10 +2391,8 @@
           <t>4877245843</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:07:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.08868055556</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2496,10 +2460,8 @@
           <t>4877241096</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:05:16</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.08699074074</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2567,10 +2529,8 @@
           <t>4877119952</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:29:29</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.06214120371</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2634,10 +2594,8 @@
           <t>4877113473</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:28:05</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.06116898148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2705,10 +2663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:58:26</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.0405787037</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2768,10 +2724,8 @@
           <t>4876903594</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:39:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.02751157407</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2843,10 +2797,8 @@
           <t>4876894927</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:38:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.02686342593</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2918,10 +2870,8 @@
           <t>4876844844</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:29:07</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.0202199074</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2985,10 +2935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:51:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44386.99423611111</v>
       </c>
       <c r="I35" t="n">
         <v>6</v>
@@ -3060,10 +3008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:38:38</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44386.98516203704</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3131,10 +3077,8 @@
           <t>4876489240</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:35:08</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44386.98273148148</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
@@ -3210,10 +3154,8 @@
           <t>4874359184</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:29:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44386.97872685185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3285,10 +3227,8 @@
           <t>4876308589</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:11:20</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44386.96620370371</v>
       </c>
       <c r="I39" t="n">
         <v>5</v>
@@ -3356,10 +3296,8 @@
           <t>4876274415</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:06:58</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44386.96317129629</v>
       </c>
       <c r="I40" t="n">
         <v>5</v>
@@ -3424,10 +3362,8 @@
           <t>4874359184</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:45:08</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44386.94800925926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3503,10 +3439,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:43:12</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44386.94666666666</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3574,10 +3508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:41:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44386.94538194445</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3653,10 +3585,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:35:00</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44386.94097222222</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3720,10 +3650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:33:53</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44386.94019675926</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3795,10 +3723,8 @@
           <t>4875914287</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:22:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44386.93206018519</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3871,10 +3797,8 @@
           <t>4875841693</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:12:16</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44386.92518518519</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3951,10 +3875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:59:55</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44386.91660879629</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4026,10 +3948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:52:37</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44386.91153935185</v>
       </c>
       <c r="I49" t="n">
         <v>15</v>
@@ -4101,10 +4021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:48:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44386.90880787037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4176,10 +4094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:44:37</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44386.9059837963</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4251,10 +4167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:22:37</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44386.89070601852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4318,10 +4232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:21:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44386.89011574074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4397,10 +4309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:18:27</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44386.8878125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4476,10 +4386,8 @@
           <t>4875402888</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:16:21</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44386.88635416667</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4547,10 +4455,8 @@
           <t>4875295216</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:01:43</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44386.87619212963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4623,10 +4529,8 @@
           <t>4875266329</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:58:07</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44386.87369212963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4702,10 +4606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:31:03</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44386.85489583333</v>
       </c>
       <c r="I58" t="n">
         <v>24</v>
@@ -4769,10 +4671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:20:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44386.84770833333</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4844,10 +4744,8 @@
           <t>4874602020</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:16:18</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44386.84465277778</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4915,10 +4813,8 @@
           <t>4874246684</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:16:14</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44386.84460648148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4994,10 +4890,8 @@
           <t>4874963830</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:14:07</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44386.84313657408</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5057,10 +4951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:06:35</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44386.83790509259</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5128,10 +5020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:02:28</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44386.8350462963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5207,10 +5097,8 @@
           <t>4874878637</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:02:09</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44386.83482638889</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5282,10 +5170,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:01:48</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44386.83458333334</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5361,10 +5247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:01:47</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44386.83457175926</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5436,10 +5320,8 @@
           <t>4874843360</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:56:34</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44386.83094907407</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5507,10 +5389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:55:54</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44386.83048611111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5586,10 +5466,8 @@
           <t>4874602020</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:55:41</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44386.83033564815</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5657,10 +5535,8 @@
           <t>4874832364</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:55:33</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44386.83024305556</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5728,10 +5604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:52:40</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44386.82824074074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5795,10 +5669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:52:34</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44386.8281712963</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5862,10 +5734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:52:30</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44386.828125</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5929,10 +5799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:52:26</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44386.8280787037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5996,10 +5864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:49:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44386.82620370371</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6075,10 +5941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:49:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44386.82603009259</v>
       </c>
       <c r="I77" t="n">
         <v>4</v>
@@ -6150,10 +6014,8 @@
           <t>4874769427</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:46:52</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44386.82421296297</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6217,10 +6079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:42:05</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44386.8208912037</v>
       </c>
       <c r="I79" t="n">
         <v>4</v>
@@ -6284,10 +6144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:24</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44386.81972222222</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6351,10 +6209,8 @@
           <t>4874731226</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:01</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44386.81945601852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6426,10 +6282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:37:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44386.81792824074</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6497,10 +6351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:37:40</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44386.81782407407</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6568,10 +6420,8 @@
           <t>4874287898</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:37:06</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44386.81743055556</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6643,10 +6493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:35:06</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44386.81604166667</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6722,10 +6570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:34:08</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44386.81537037037</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6801,10 +6647,8 @@
           <t>4874669747</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:32:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44386.81431712963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6876,10 +6720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:31:51</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44386.81378472222</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6943,10 +6785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:30:21</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44386.81274305555</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -7022,10 +6862,8 @@
           <t>4874651247</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:28:53</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44386.81172453704</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7089,10 +6927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:27:38</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44386.81085648148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7164,10 +7000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:26:03</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44386.80975694444</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7243,10 +7077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:25:17</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44386.80922453704</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7314,10 +7146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:23:06</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44386.80770833333</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7393,10 +7223,8 @@
           <t>4874602020</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:22:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44386.80723379629</v>
       </c>
       <c r="I95" t="n">
         <v>5</v>
@@ -7472,10 +7300,8 @@
           <t>4874588036</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:20:42</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44386.80604166666</v>
       </c>
       <c r="I96" t="n">
         <v>4</v>
@@ -7547,10 +7373,8 @@
           <t>4874582662</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:16</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44386.80504629629</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7618,10 +7442,8 @@
           <t>4874578897</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:18:57</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44386.80482638889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7697,10 +7519,8 @@
           <t>4874482593</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:18:13</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44386.80431712963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7776,10 +7596,8 @@
           <t>4874482593</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:16:52</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44386.80337962963</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7847,10 +7665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:52</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44386.80199074074</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7922,10 +7738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:21</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44386.80163194444</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8001,10 +7815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:12:47</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44386.80054398148</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8080,10 +7892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:12:07</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44386.80008101852</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8151,10 +7961,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:12:05</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44386.80005787037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8226,10 +8034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:12:01</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44386.80001157407</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8297,10 +8103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:11:52</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44386.79990740741</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8368,10 +8172,8 @@
           <t>4874315808</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:11:23</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44386.79957175926</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8447,10 +8249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:10:02</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44386.79863425926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8518,10 +8318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:57</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44386.79788194445</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8593,10 +8391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:31</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44386.79758101852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8664,10 +8460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:04</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44386.79726851852</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8743,10 +8537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:07:27</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44386.79684027778</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8822,10 +8614,8 @@
           <t>4874416597</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:06:13</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44386.7959837963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8893,10 +8683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:43</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44386.79563657408</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8964,10 +8752,8 @@
           <t>4874483371</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:39</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44386.79559027778</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9031,10 +8817,8 @@
           <t>4874351904</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:20</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44386.79537037037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9103,10 +8887,8 @@
           <t>4874482593</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:18</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44386.79534722222</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9182,10 +8964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:03</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44386.79447916667</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9261,10 +9041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:02</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44386.79446759259</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9336,10 +9114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:43</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44386.79355324074</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9403,10 +9179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44386.79333333333</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9470,10 +9244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:03</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44386.79309027778</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9545,10 +9317,8 @@
           <t>4874246684</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:27</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44386.79197916666</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9624,10 +9394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:14</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44386.7918287037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9691,10 +9459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44386.79181712963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9770,10 +9536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:44</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44386.79148148148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9849,10 +9613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:53</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44386.7908912037</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9928,10 +9690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:34</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44386.79067129629</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10003,10 +9763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:08</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44386.79037037037</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10072,10 +9830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:57</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44386.79024305556</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10151,10 +9907,8 @@
           <t>4874423907</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:34</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44386.78997685185</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -10214,10 +9968,8 @@
           <t>4874428163</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:17</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44386.78978009259</v>
       </c>
       <c r="I133" t="n">
         <v>4</v>
@@ -10277,10 +10029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:58</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44386.78956018519</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10344,10 +10094,8 @@
           <t>4874416597</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:09</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44386.78899305555</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10415,10 +10163,8 @@
           <t>4874416397</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:05</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44386.78894675926</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10486,10 +10232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:04</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44386.78893518518</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10553,10 +10297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:00</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44386.78888888889</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10626,10 +10368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:59</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44386.78887731482</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10705,10 +10445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:55</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44386.78883101852</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10780,10 +10518,8 @@
           <t>4874359184</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:38</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44386.78863425926</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10855,10 +10591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:23</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44386.78846064815</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10934,10 +10668,8 @@
           <t>4874412245</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:54:51</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44386.78809027778</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -11005,10 +10737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:54:42</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44386.78798611111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11072,10 +10802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:54</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44386.78743055555</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11143,10 +10871,8 @@
           <t>4874392713</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:47</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44386.78665509259</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11214,10 +10940,8 @@
           <t>4874388369</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:35</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44386.78651620371</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11285,10 +11009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:06</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44386.78618055556</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11360,10 +11082,8 @@
           <t>4874390930</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:03</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44386.78614583334</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11431,10 +11151,8 @@
           <t>4874390638</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:55</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44386.78605324074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11510,10 +11228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:17</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44386.78561342593</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11581,10 +11297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:03</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44386.78545138889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11656,10 +11370,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:47</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44386.7852662037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11723,10 +11435,8 @@
           <t>4874315808</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:36</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44386.78513888889</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11802,10 +11512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:33</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44386.78510416667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11881,10 +11589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44386.78501157407</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11960,10 +11666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:22</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44386.78497685185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12027,10 +11731,8 @@
           <t>4874373170</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:22</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44386.78497685185</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12094,10 +11796,8 @@
           <t>4874331774</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:18</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44386.78493055556</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12173,10 +11873,8 @@
           <t>4874380059</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:06</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44386.78479166667</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12252,10 +11950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:13</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44386.78417824074</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12323,10 +12019,8 @@
           <t>4874367342</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:01</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44386.78403935185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12394,10 +12088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:47</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44386.78387731482</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12469,10 +12161,8 @@
           <t>4874359184</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:36</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44386.78375</v>
       </c>
       <c r="I164" t="n">
         <v>16</v>
@@ -12548,10 +12238,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:07</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44386.78341435185</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12616,10 +12304,8 @@
           <t>4874240002</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:06</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44386.78340277778</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12683,10 +12369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:57</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44386.78329861111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12758,10 +12442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:48</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44386.78319444445</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12837,10 +12519,8 @@
           <t>4874357133</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:44</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44386.78314814815</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12912,10 +12592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:24</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44386.78291666666</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -12987,10 +12665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:00</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44386.78263888889</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13066,10 +12742,8 @@
           <t>4874352301</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:00</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44386.78263888889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13133,10 +12807,8 @@
           <t>4874351904</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:50</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44386.78252314815</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13200,10 +12872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:47</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44386.78248842592</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13263,10 +12933,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:31</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44386.78230324074</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13334,10 +13002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:57</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44386.78190972222</v>
       </c>
       <c r="I176" t="n">
         <v>47</v>
@@ -13413,10 +13079,8 @@
           <t>4874339446</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:54</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44386.781875</v>
       </c>
       <c r="I177" t="n">
         <v>8</v>
@@ -13492,10 +13156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:52</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44386.78185185185</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13559,10 +13221,8 @@
           <t>4874341503</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:19</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44386.78146990741</v>
       </c>
       <c r="I179" t="n">
         <v>11</v>
@@ -13638,10 +13298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:13</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44386.78140046296</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13713,10 +13371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:31</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44386.78091435185</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13784,10 +13440,8 @@
           <t>4874331774</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:58</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44386.78053240741</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13863,10 +13517,8 @@
           <t>4874324014</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:44</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44386.78037037037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13942,10 +13594,8 @@
           <t>4874322746</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:13</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44386.78001157408</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14021,10 +13671,8 @@
           <t>4874319946</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:11</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44386.77998842593</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14100,10 +13748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:08</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44386.77995370371</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14171,10 +13817,8 @@
           <t>4874246684</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:08</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44386.77995370371</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14246,10 +13890,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44386.77971064814</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14317,10 +13959,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:39</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44386.77961805555</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14392,10 +14032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:28</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44386.77949074074</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14463,10 +14101,8 @@
           <t>4874320334</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:14</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44386.77932870371</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14542,10 +14178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:07</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44386.77924768518</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14621,10 +14255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:02</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44386.77918981481</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14700,10 +14332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:52</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44386.77907407407</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14776,10 +14406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:42</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44386.77895833334</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14855,10 +14483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:31</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44386.77883101852</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14926,10 +14552,8 @@
           <t>4874315808</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:25</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44386.77876157407</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15005,10 +14629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:14</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44386.77863425926</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15080,10 +14702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44386.77854166667</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15151,10 +14771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:21</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44386.77802083334</v>
       </c>
       <c r="I200" t="n">
         <v>4</v>
@@ -15232,10 +14850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:19</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44386.77799768518</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15311,10 +14927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:53</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44386.77769675926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15378,10 +14992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:46</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44386.77761574074</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15457,10 +15069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:22</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44386.77733796297</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15524,10 +15134,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:07</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44386.77716435185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15591,10 +15199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:59</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44386.77707175926</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15666,10 +15272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:44</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44386.77689814815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15741,10 +15345,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:29</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44386.77672453703</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15820,10 +15422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:23</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44386.7766550926</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15887,10 +15487,8 @@
           <t>4874290768</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:18</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44386.77659722222</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15962,10 +15560,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:05</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44386.77644675926</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16025,10 +15621,8 @@
           <t>4874287898</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:59</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44386.77637731482</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16101,10 +15695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:16</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44386.77587962963</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16172,10 +15764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:12</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44386.77583333333</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16241,10 +15831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:27</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44386.7753125</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -16304,10 +15892,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:17</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44386.77519675926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16383,10 +15969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:16</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44386.77518518519</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16446,10 +16030,8 @@
           <t>4874280094</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:59</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44386.77498842592</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16517,10 +16099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:54</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44386.77493055556</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16596,10 +16176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:50</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44386.77488425926</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16667,10 +16245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:37</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44386.77473379629</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16746,10 +16322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:33</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44386.7746875</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16817,10 +16391,8 @@
           <t>4874264094</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:32</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44386.77467592592</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16880,10 +16452,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:23</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44386.77457175926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16960,10 +16530,8 @@
           <t>4874263275</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:11</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44386.77443287037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17039,10 +16607,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:09</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44386.77440972222</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17118,10 +16684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:02</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44386.7743287037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17197,10 +16761,8 @@
           <t>4874262484</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:50</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44386.77418981482</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17276,10 +16838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:48</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44386.77416666667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17351,10 +16911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:41</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44386.77408564815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17426,10 +16984,8 @@
           <t>4874266571</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44386.77399305555</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17493,10 +17049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:29</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44386.77394675926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17572,10 +17126,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:20</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44386.77384259259</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17639,10 +17191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:18</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44386.77381944445</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17714,10 +17264,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:29</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44386.77325231482</v>
       </c>
       <c r="I235" t="n">
         <v>6</v>
@@ -17793,10 +17341,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:26</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44386.77321759259</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17864,10 +17410,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:10</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44386.77303240741</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17943,10 +17487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:03</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44386.77295138889</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18022,10 +17564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:43</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44386.77271990741</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18093,10 +17633,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:39</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44386.77267361111</v>
       </c>
       <c r="I240" t="n">
         <v>7</v>
@@ -18164,10 +17702,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44386.77261574074</v>
       </c>
       <c r="I241" t="n">
         <v>4</v>
@@ -18239,10 +17775,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:32</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44386.77259259259</v>
       </c>
       <c r="I242" t="n">
         <v>6</v>
@@ -18302,10 +17836,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:23</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44386.77248842592</v>
       </c>
       <c r="I243" t="n">
         <v>6</v>
@@ -18373,10 +17905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:17</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44386.77241898148</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18452,10 +17982,8 @@
           <t>4874246684</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:16</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44386.77240740741</v>
       </c>
       <c r="I245" t="n">
         <v>23</v>
@@ -18531,10 +18059,8 @@
           <t>4874250713</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:09</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44386.77232638889</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18598,10 +18124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44386.77214120371</v>
       </c>
       <c r="I247" t="n">
         <v>9</v>
@@ -18677,10 +18201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:52</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44386.77212962963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18744,10 +18266,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:51</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44386.77211805555</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -18815,10 +18335,8 @@
           <t>4874239805</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:47</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44386.77207175926</v>
       </c>
       <c r="I250" t="n">
         <v>8</v>
@@ -18878,10 +18396,8 @@
           <t>4874239603</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:41</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44386.77200231481</v>
       </c>
       <c r="I251" t="n">
         <v>34</v>
@@ -18957,10 +18473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:22</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44386.77178240741</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -19036,10 +18550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:20</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44386.77175925926</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -19115,10 +18627,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:14</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44386.77168981481</v>
       </c>
       <c r="I254" t="n">
         <v>74</v>
@@ -19195,10 +18705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44386.77159722222</v>
       </c>
       <c r="I255" t="n">
         <v>425</v>
@@ -19266,10 +18774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:59</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44386.77151620371</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19337,10 +18843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:57</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44386.77149305555</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19409,10 +18913,8 @@
           <t>4874233559</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:55</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44386.77146990741</v>
       </c>
       <c r="I258" t="n">
         <v>17</v>
@@ -19476,10 +18978,8 @@
           <t>4874233385</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:51</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44386.77142361111</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -19539,10 +19039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:28</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44386.77115740741</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19606,10 +19104,8 @@
           <t>4874240002</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:17</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44386.77103009259</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19673,10 +19169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:16</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44386.77101851852</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19748,10 +19242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:14</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44386.77099537037</v>
       </c>
       <c r="I263" t="n">
         <v>221</v>
@@ -19819,10 +19311,8 @@
           <t>4874235998</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:14</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44386.77099537037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19898,10 +19388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:06</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44386.77090277777</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19973,10 +19461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:05</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44386.77089120371</v>
       </c>
       <c r="I266" t="n">
         <v>754</v>
@@ -20052,10 +19538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:05</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44386.77089120371</v>
       </c>
       <c r="I267" t="n">
         <v>206</v>
@@ -20119,10 +19603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:02</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44386.77085648148</v>
       </c>
       <c r="I268" t="n">
         <v>153</v>
@@ -20194,10 +19676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:02</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44386.77085648148</v>
       </c>
       <c r="I269" t="n">
         <v>27</v>
@@ -20261,10 +19741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:58</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44386.77081018518</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20332,10 +19810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:57</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44386.77079861111</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20411,10 +19887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:57</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44386.77079861111</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20478,10 +19952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:56</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44386.77078703704</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20549,10 +20021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:54</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44386.77076388889</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20624,10 +20094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:51</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44386.77072916667</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20703,10 +20171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:51</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44386.77072916667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20774,10 +20240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:49</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44386.77070601852</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20853,10 +20317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:47</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44386.77068287037</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20924,10 +20386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:40</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44386.77060185185</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21003,10 +20463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:38</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44386.7705787037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21070,10 +20528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:37</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44386.77056712963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21137,10 +20593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:31</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44386.77049768518</v>
       </c>
       <c r="I282" t="n">
         <v>123</v>
@@ -21200,10 +20654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:26</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44386.77043981481</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21271,10 +20723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:24</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44386.77041666667</v>
       </c>
       <c r="I284" t="n">
         <v>35</v>
@@ -21346,10 +20796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:18</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44386.77034722222</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21421,10 +20869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:18</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44386.77034722222</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21500,10 +20946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:16</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44386.77032407407</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21579,10 +21023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:29:13</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44386.77028935185</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
